--- a/biology/Botanique/Melanthera/Melanthera.xlsx
+++ b/biology/Botanique/Melanthera/Melanthera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melanthera est un genre de plante à fleurs de la famille des Asteraceae.
-L'espèce la plus commune est Melanthera biflora qui se trouve généralement dans les zones côtières et les îles de la zone tropicale de la région Indo-Pacifique[2].
+L'espèce la plus commune est Melanthera biflora qui se trouve généralement dans les zones côtières et les îles de la zone tropicale de la région Indo-Pacifique.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Wollastonia DC. ex Decne[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Wollastonia DC. ex Decne.
 Lipotriches R.Br.
 Wuerschmittia Sch.Bip. ex Walp.
 Wedelia sect. Wollastonia Benth. &amp; Hook.f.
@@ -550,7 +564,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon GRIN :
 Melanthera biflora (L.) Wild
@@ -558,7 +574,7 @@
 (≡) Verbesina biflora L.
 (≡) Wedelia biflora (L.) DC.
 (=) Wedelia canescens (Gaudich.) Merr.
-(≡) Wollastonia biflora (L.) DC.[4]
+(≡) Wollastonia biflora (L.) DC.
 (=) Wollastonia biflora var. canescens (Gaudich.) Fosberg
 Melanthera nivea (L.) Small
 Synonymes
@@ -570,7 +586,7 @@
 (≡) Buphthalmum scandens Schumach.
 Melanthera waimeaensis (H.St.John) W.L.Wagner &amp; H.Rob.
 Synonyme
-(≡) Lipochaeta waimeaensis H. St. John[5]</t>
+(≡) Lipochaeta waimeaensis H. St. John</t>
         </is>
       </c>
     </row>
